--- a/medicine/Mort/Cimetière_central_de_Montevideo/Cimetière_central_de_Montevideo.xlsx
+++ b/medicine/Mort/Cimetière_central_de_Montevideo/Cimetière_central_de_Montevideo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_central_de_Montevideo</t>
+          <t>Cimetière_central_de_Montevideo</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière central (en espagnol : Cementerio central) de Montevideo est l'un des principaux cimetières du pays, où les gens célèbres y sont enterrés.
-Il est situé dans le sud de la ville et a été fondée en 1835. La façade, après la Grande Guerre (1839-1852), est par l'Italien Bernardo Poncini[1].
-Le cimetière était à l'origine situé dans une région éloignée de la ville à cause du risque d'épidémie. Cependant, avec la croissance rapide de la ville au cours du XXe siècle, le cimetière central entre dans la zone urbaine[1].
-Cette nécropole a gagné en notoriété depuis 1858[2]. Il fut l'un des premiers cimetières dans le pays à une époque où les inhumations dans les églises étaient encore fréquentes. Il comprend également des œuvres de sculpteurs comme José Belloni et Juan Zorrilla de San Martín[2]. 
+Il est situé dans le sud de la ville et a été fondée en 1835. La façade, après la Grande Guerre (1839-1852), est par l'Italien Bernardo Poncini.
+Le cimetière était à l'origine situé dans une région éloignée de la ville à cause du risque d'épidémie. Cependant, avec la croissance rapide de la ville au cours du XXe siècle, le cimetière central entre dans la zone urbaine.
+Cette nécropole a gagné en notoriété depuis 1858. Il fut l'un des premiers cimetières dans le pays à une époque où les inhumations dans les églises étaient encore fréquentes. Il comprend également des œuvres de sculpteurs comme José Belloni et Juan Zorrilla de San Martín. 
 </t>
         </is>
       </c>
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_central_de_Montevideo</t>
+          <t>Cimetière_central_de_Montevideo</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,20 +526,22 @@
           <t>Personnages illustres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Au Panthéon National (et les deux autres zones) se trouvent les tombes de personnalités éminentes de la société uruguayenne et internationale, parmi lesquelles celles de[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Au Panthéon National (et les deux autres zones) se trouvent les tombes de personnalités éminentes de la société uruguayenne et internationale, parmi lesquelles celles de :
 Irma Avegno (1881-1913), femme d'affaires.
 Eduardo Acevedo ;
 Delmira Agustini ;
 Luis Batlle Berres ;
 José Batlle y Ordóñez ;
 Juan Manuel Blanes ;
-François Ducasse, père du Comte de Lautréamont (Isidore Ducasse)[4] ;
+François Ducasse, père du Comte de Lautréamont (Isidore Ducasse) ;
 Luis Alberto de Herrera ;
 Raúl Montero Bustamante ;
 Benito Nardone ;
-Pereira-Rossell[5] ;
+Pereira-Rossell ;
 José Enrique Rodó ;
 Juan Spikerman ;
 Juan Zorrilla de San Martín ;
